--- a/Projects/CARLSBRGHK/Data/config_setup.xlsx
+++ b/Projects/CARLSBRGHK/Data/config_setup.xlsx
@@ -331,18 +331,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.9234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CARLSBRGHK/Data/config_setup.xlsx
+++ b/Projects/CARLSBRGHK/Data/config_setup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">include_category</t>
   </si>
   <si>
-    <t xml:space="preserve">START_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END_DATE</t>
+    <t xml:space="preserve">startdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enddate</t>
   </si>
   <si>
     <t xml:space="preserve">FSOS_ALL</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambient Floor Display(Off Premise), Can Bar(On Premise)</t>
+    <t xml:space="preserve">Ambient Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -67,22 +67,25 @@
     <t xml:space="preserve">Include</t>
   </si>
   <si>
-    <t xml:space="preserve">Beer, Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT_SKU_FACINGS_IN_FLOOR_STACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baileys</t>
+    <t xml:space="preserve">Beer, Cider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT_SKU_FACINGS_FLOOR_STACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include </t>
   </si>
   <si>
     <t xml:space="preserve">MSL_AMBIENT_SHELF_PERC</t>
   </si>
   <si>
-    <t xml:space="preserve">Include </t>
-  </si>
-  <si>
     <t xml:space="preserve">MSL_COOLER_PERC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">MSL_FLOOR_STACK_PERC</t>
@@ -94,7 +97,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -209,7 +212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,7 +237,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,23 +333,23 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.4081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,161 +387,151 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>44581</v>
+      <c r="J2" s="7" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>80355</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>44581</v>
+      <c r="J3" s="7" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>80355</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="6" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>44581</v>
+      <c r="J4" s="7" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>80355</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="6" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>44581</v>
+      <c r="J5" s="7" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>80355</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="5" t="s">
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="6" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>44581</v>
+      <c r="J6" s="7" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>80355</v>
       </c>
     </row>
   </sheetData>
